--- a/users.xlsx
+++ b/users.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="15860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>姓名</t>
   </si>
@@ -40,85 +27,94 @@
     <t>工号</t>
   </si>
   <si>
-    <t>周德友2</t>
-  </si>
-  <si>
-    <t>zhoudeyou2</t>
+    <t>周德友01</t>
+  </si>
+  <si>
+    <t>zhoudeyou01</t>
   </si>
   <si>
     <t>B15424</t>
   </si>
   <si>
-    <t>周德友3</t>
-  </si>
-  <si>
-    <t>zhoudeyou3</t>
+    <t>周德友02</t>
+  </si>
+  <si>
+    <t>zhoudeyou02</t>
   </si>
   <si>
     <t>B15425</t>
   </si>
   <si>
-    <t>周德友4</t>
-  </si>
-  <si>
-    <t>zhoudeyou4</t>
+    <t>周德友03</t>
+  </si>
+  <si>
+    <t>zhoudeyou03</t>
   </si>
   <si>
     <t>B15426</t>
   </si>
   <si>
-    <t>周德友5</t>
-  </si>
-  <si>
-    <t>zhoudeyou5</t>
+    <t>周德友04</t>
+  </si>
+  <si>
+    <t>zhoudeyou04</t>
   </si>
   <si>
     <t>B15427</t>
   </si>
   <si>
-    <t>周德友6</t>
-  </si>
-  <si>
-    <t>zhoudeyou6</t>
+    <t>周德友05</t>
+  </si>
+  <si>
+    <t>zhoudeyou05</t>
   </si>
   <si>
     <t>B15428</t>
   </si>
   <si>
-    <t>周德友7</t>
-  </si>
-  <si>
-    <t>zhoudeyou7</t>
+    <t>周德友06</t>
+  </si>
+  <si>
+    <t>zhoudeyou06</t>
   </si>
   <si>
     <t>B15429</t>
   </si>
   <si>
-    <t>周德友8</t>
-  </si>
-  <si>
-    <t>zhoudeyou8</t>
+    <t>周德友07</t>
+  </si>
+  <si>
+    <t>zhoudeyou07</t>
   </si>
   <si>
     <t>B15430</t>
   </si>
   <si>
-    <t>周德友9</t>
-  </si>
-  <si>
-    <t>zhoudeyou9</t>
+    <t>周德友08</t>
+  </si>
+  <si>
+    <t>zhoudeyou08</t>
   </si>
   <si>
     <t>B15431</t>
   </si>
   <si>
+    <t>周德友09</t>
+  </si>
+  <si>
+    <t>zhoudeyou09</t>
+  </si>
+  <si>
+    <t>B15432</t>
+  </si>
+  <si>
     <t>周德友10</t>
   </si>
   <si>
     <t>zhoudeyou10</t>
   </si>
   <si>
-    <t>B15432</t>
+    <t>B15433</t>
   </si>
   <si>
     <t>周德友11</t>
@@ -127,7 +123,7 @@
     <t>zhoudeyou11</t>
   </si>
   <si>
-    <t>B15433</t>
+    <t>B15434</t>
   </si>
   <si>
     <t>周德友12</t>
@@ -136,7 +132,7 @@
     <t>zhoudeyou12</t>
   </si>
   <si>
-    <t>B15434</t>
+    <t>B15435</t>
   </si>
   <si>
     <t>周德友13</t>
@@ -145,7 +141,7 @@
     <t>zhoudeyou13</t>
   </si>
   <si>
-    <t>B15435</t>
+    <t>B15436</t>
   </si>
   <si>
     <t>周德友14</t>
@@ -154,7 +150,7 @@
     <t>zhoudeyou14</t>
   </si>
   <si>
-    <t>B15436</t>
+    <t>B15437</t>
   </si>
   <si>
     <t>周德友15</t>
@@ -163,7 +159,7 @@
     <t>zhoudeyou15</t>
   </si>
   <si>
-    <t>B15437</t>
+    <t>B15438</t>
   </si>
   <si>
     <t>周德友16</t>
@@ -172,7 +168,7 @@
     <t>zhoudeyou16</t>
   </si>
   <si>
-    <t>B15438</t>
+    <t>B15439</t>
   </si>
   <si>
     <t>周德友17</t>
@@ -181,7 +177,7 @@
     <t>zhoudeyou17</t>
   </si>
   <si>
-    <t>B15439</t>
+    <t>B15440</t>
   </si>
   <si>
     <t>周德友18</t>
@@ -190,7 +186,7 @@
     <t>zhoudeyou18</t>
   </si>
   <si>
-    <t>B15440</t>
+    <t>B15441</t>
   </si>
   <si>
     <t>周德友19</t>
@@ -199,7 +195,7 @@
     <t>zhoudeyou19</t>
   </si>
   <si>
-    <t>B15441</t>
+    <t>B15442</t>
   </si>
   <si>
     <t>周德友20</t>
@@ -208,7 +204,7 @@
     <t>zhoudeyou20</t>
   </si>
   <si>
-    <t>B15442</t>
+    <t>B15443</t>
   </si>
   <si>
     <t>周德友21</t>
@@ -217,7 +213,7 @@
     <t>zhoudeyou21</t>
   </si>
   <si>
-    <t>B15443</t>
+    <t>B15444</t>
   </si>
   <si>
     <t>周德友22</t>
@@ -226,7 +222,7 @@
     <t>zhoudeyou22</t>
   </si>
   <si>
-    <t>B15444</t>
+    <t>B15445</t>
   </si>
   <si>
     <t>周德友23</t>
@@ -235,7 +231,7 @@
     <t>zhoudeyou23</t>
   </si>
   <si>
-    <t>B15445</t>
+    <t>B15446</t>
   </si>
   <si>
     <t>周德友24</t>
@@ -244,7 +240,7 @@
     <t>zhoudeyou24</t>
   </si>
   <si>
-    <t>B15446</t>
+    <t>B15447</t>
   </si>
   <si>
     <t>周德友25</t>
@@ -253,7 +249,7 @@
     <t>zhoudeyou25</t>
   </si>
   <si>
-    <t>B15447</t>
+    <t>B15448</t>
   </si>
   <si>
     <t>周德友26</t>
@@ -262,7 +258,7 @@
     <t>zhoudeyou26</t>
   </si>
   <si>
-    <t>B15448</t>
+    <t>B15449</t>
   </si>
   <si>
     <t>周德友27</t>
@@ -271,7 +267,7 @@
     <t>zhoudeyou27</t>
   </si>
   <si>
-    <t>B15449</t>
+    <t>B15450</t>
   </si>
   <si>
     <t>周德友28</t>
@@ -280,7 +276,7 @@
     <t>zhoudeyou28</t>
   </si>
   <si>
-    <t>B15450</t>
+    <t>B15451</t>
   </si>
   <si>
     <t>周德友29</t>
@@ -289,7 +285,7 @@
     <t>zhoudeyou29</t>
   </si>
   <si>
-    <t>B15451</t>
+    <t>B15452</t>
   </si>
   <si>
     <t>周德友30</t>
@@ -298,7 +294,7 @@
     <t>zhoudeyou30</t>
   </si>
   <si>
-    <t>B15452</t>
+    <t>B15453</t>
   </si>
   <si>
     <t>周德友31</t>
@@ -307,7 +303,7 @@
     <t>zhoudeyou31</t>
   </si>
   <si>
-    <t>B15453</t>
+    <t>B15454</t>
   </si>
   <si>
     <t>周德友32</t>
@@ -316,7 +312,7 @@
     <t>zhoudeyou32</t>
   </si>
   <si>
-    <t>B15454</t>
+    <t>B15455</t>
   </si>
   <si>
     <t>周德友33</t>
@@ -325,7 +321,7 @@
     <t>zhoudeyou33</t>
   </si>
   <si>
-    <t>B15455</t>
+    <t>B15456</t>
   </si>
   <si>
     <t>周德友34</t>
@@ -334,7 +330,7 @@
     <t>zhoudeyou34</t>
   </si>
   <si>
-    <t>B15456</t>
+    <t>B15457</t>
   </si>
   <si>
     <t>周德友35</t>
@@ -343,7 +339,7 @@
     <t>zhoudeyou35</t>
   </si>
   <si>
-    <t>B15457</t>
+    <t>B15458</t>
   </si>
   <si>
     <t>周德友36</t>
@@ -352,7 +348,7 @@
     <t>zhoudeyou36</t>
   </si>
   <si>
-    <t>B15458</t>
+    <t>B15459</t>
   </si>
   <si>
     <t>周德友37</t>
@@ -361,7 +357,7 @@
     <t>zhoudeyou37</t>
   </si>
   <si>
-    <t>B15459</t>
+    <t>B15460</t>
   </si>
   <si>
     <t>周德友38</t>
@@ -370,7 +366,7 @@
     <t>zhoudeyou38</t>
   </si>
   <si>
-    <t>B15460</t>
+    <t>B15461</t>
   </si>
   <si>
     <t>周德友39</t>
@@ -379,7 +375,7 @@
     <t>zhoudeyou39</t>
   </si>
   <si>
-    <t>B15461</t>
+    <t>B15462</t>
   </si>
   <si>
     <t>周德友40</t>
@@ -388,7 +384,7 @@
     <t>zhoudeyou40</t>
   </si>
   <si>
-    <t>B15462</t>
+    <t>B15463</t>
   </si>
   <si>
     <t>周德友41</t>
@@ -397,7 +393,7 @@
     <t>zhoudeyou41</t>
   </si>
   <si>
-    <t>B15463</t>
+    <t>B15464</t>
   </si>
   <si>
     <t>周德友42</t>
@@ -406,7 +402,7 @@
     <t>zhoudeyou42</t>
   </si>
   <si>
-    <t>B15464</t>
+    <t>B15465</t>
   </si>
   <si>
     <t>周德友43</t>
@@ -415,7 +411,7 @@
     <t>zhoudeyou43</t>
   </si>
   <si>
-    <t>B15465</t>
+    <t>B15466</t>
   </si>
   <si>
     <t>周德友44</t>
@@ -424,7 +420,7 @@
     <t>zhoudeyou44</t>
   </si>
   <si>
-    <t>B15466</t>
+    <t>B15467</t>
   </si>
   <si>
     <t>周德友45</t>
@@ -433,7 +429,7 @@
     <t>zhoudeyou45</t>
   </si>
   <si>
-    <t>B15467</t>
+    <t>B15468</t>
   </si>
   <si>
     <t>周德友46</t>
@@ -442,7 +438,7 @@
     <t>zhoudeyou46</t>
   </si>
   <si>
-    <t>B15468</t>
+    <t>B15469</t>
   </si>
   <si>
     <t>周德友47</t>
@@ -451,7 +447,7 @@
     <t>zhoudeyou47</t>
   </si>
   <si>
-    <t>B15469</t>
+    <t>B15470</t>
   </si>
   <si>
     <t>周德友48</t>
@@ -460,7 +456,7 @@
     <t>zhoudeyou48</t>
   </si>
   <si>
-    <t>B15470</t>
+    <t>B15471</t>
   </si>
   <si>
     <t>周德友49</t>
@@ -469,7 +465,7 @@
     <t>zhoudeyou49</t>
   </si>
   <si>
-    <t>B15471</t>
+    <t>B15472</t>
   </si>
   <si>
     <t>周德友50</t>
@@ -478,7 +474,7 @@
     <t>zhoudeyou50</t>
   </si>
   <si>
-    <t>B15472</t>
+    <t>B15473</t>
   </si>
   <si>
     <t>周德友51</t>
@@ -487,7 +483,7 @@
     <t>zhoudeyou51</t>
   </si>
   <si>
-    <t>B15473</t>
+    <t>B15474</t>
   </si>
   <si>
     <t>周德友52</t>
@@ -496,7 +492,7 @@
     <t>zhoudeyou52</t>
   </si>
   <si>
-    <t>B15474</t>
+    <t>B15475</t>
   </si>
   <si>
     <t>周德友53</t>
@@ -505,7 +501,7 @@
     <t>zhoudeyou53</t>
   </si>
   <si>
-    <t>B15475</t>
+    <t>B15476</t>
   </si>
   <si>
     <t>周德友54</t>
@@ -514,7 +510,7 @@
     <t>zhoudeyou54</t>
   </si>
   <si>
-    <t>B15476</t>
+    <t>B15477</t>
   </si>
   <si>
     <t>周德友55</t>
@@ -523,7 +519,7 @@
     <t>zhoudeyou55</t>
   </si>
   <si>
-    <t>B15477</t>
+    <t>B15478</t>
   </si>
   <si>
     <t>周德友56</t>
@@ -532,7 +528,7 @@
     <t>zhoudeyou56</t>
   </si>
   <si>
-    <t>B15478</t>
+    <t>B15479</t>
   </si>
   <si>
     <t>周德友57</t>
@@ -541,7 +537,7 @@
     <t>zhoudeyou57</t>
   </si>
   <si>
-    <t>B15479</t>
+    <t>B15480</t>
   </si>
   <si>
     <t>周德友58</t>
@@ -550,7 +546,7 @@
     <t>zhoudeyou58</t>
   </si>
   <si>
-    <t>B15480</t>
+    <t>B15481</t>
   </si>
   <si>
     <t>周德友59</t>
@@ -559,7 +555,7 @@
     <t>zhoudeyou59</t>
   </si>
   <si>
-    <t>B15481</t>
+    <t>B15482</t>
   </si>
   <si>
     <t>周德友60</t>
@@ -568,7 +564,7 @@
     <t>zhoudeyou60</t>
   </si>
   <si>
-    <t>B15482</t>
+    <t>B15483</t>
   </si>
   <si>
     <t>周德友61</t>
@@ -577,7 +573,7 @@
     <t>zhoudeyou61</t>
   </si>
   <si>
-    <t>B15483</t>
+    <t>B15484</t>
   </si>
   <si>
     <t>周德友62</t>
@@ -586,7 +582,7 @@
     <t>zhoudeyou62</t>
   </si>
   <si>
-    <t>B15484</t>
+    <t>B15485</t>
   </si>
   <si>
     <t>周德友63</t>
@@ -595,7 +591,7 @@
     <t>zhoudeyou63</t>
   </si>
   <si>
-    <t>B15485</t>
+    <t>B15486</t>
   </si>
   <si>
     <t>周德友64</t>
@@ -604,7 +600,61 @@
     <t>zhoudeyou64</t>
   </si>
   <si>
-    <t>B15486</t>
+    <t>B15487</t>
+  </si>
+  <si>
+    <t>周德友65</t>
+  </si>
+  <si>
+    <t>zhoudeyou65</t>
+  </si>
+  <si>
+    <t>B15488</t>
+  </si>
+  <si>
+    <t>周德友66</t>
+  </si>
+  <si>
+    <t>zhoudeyou66</t>
+  </si>
+  <si>
+    <t>B15489</t>
+  </si>
+  <si>
+    <t>周德友67</t>
+  </si>
+  <si>
+    <t>zhoudeyou67</t>
+  </si>
+  <si>
+    <t>B15490</t>
+  </si>
+  <si>
+    <t>周德友68</t>
+  </si>
+  <si>
+    <t>zhoudeyou68</t>
+  </si>
+  <si>
+    <t>B15491</t>
+  </si>
+  <si>
+    <t>周德友69</t>
+  </si>
+  <si>
+    <t>zhoudeyou69</t>
+  </si>
+  <si>
+    <t>B15492</t>
+  </si>
+  <si>
+    <t>周德友70</t>
+  </si>
+  <si>
+    <t>zhoudeyou70</t>
+  </si>
+  <si>
+    <t>B15493</t>
   </si>
 </sst>
 </file>
@@ -1535,13 +1585,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="58.9711538461538" customWidth="1"/>
+    <col min="2" max="2" width="28.3653846153846" customWidth="1"/>
+    <col min="3" max="3" width="27.8846153846154" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2245,6 +2300,83 @@
       </c>
       <c r="C64" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2395,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2280,7 +2412,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15860"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1591,11 +1604,11 @@
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="58.9711538461538" customWidth="1"/>
-    <col min="2" max="2" width="28.3653846153846" customWidth="1"/>
-    <col min="3" max="3" width="27.8846153846154" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="27.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2395,7 +2408,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2412,7 +2425,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
